--- a/biology/Botanique/Voyria_caerulea/Voyria_caerulea.xlsx
+++ b/biology/Botanique/Voyria_caerulea/Voyria_caerulea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Voyria caerulea est une espèce de plante herbacées mycohétérotrophes néotropicale, appartenant à la famille des Gentianaceae. Il s'agit de l'espèce type du genre Voyria.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On rencontre Voyria rosea de la Colombie au sud du Brésil, en passant par le Venezuela (Amazonas et Bolivar), et les Guyanes, dans les forêts à 0-600 m d'altitude[2],[3],[4],[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On rencontre Voyria rosea de la Colombie au sud du Brésil, en passant par le Venezuela (Amazonas et Bolivar), et les Guyanes, dans les forêts à 0-600 m d'altitude.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Voyria caerulea est une herbacée haute de 5-10 cm.
 Les tiges sont de couleur bleuâtres à blanches, parfois pourpre foncé.
@@ -553,7 +569,7 @@
 Les filaments sont absents ou distincts et longs de 0-5 mm.
 L'ovaire est dépourvu de glandes.
 Les fruits sont des capsules déhiscentes par 2 valves.
-Les graines sont subglobuleuses[6],[3],[5].
+Les graines sont subglobuleuses.
 </t>
         </is>
       </c>
@@ -582,14 +598,16 @@
           <t>Ecologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Voyria caerulea est commune, visible quasiment toute l'année, dans les forêts de terre ferme et au bord des cours d'eau, parmi la littière, du niveau de la mer jusqu'à 600 m d'altitude[6],[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Voyria caerulea est commune, visible quasiment toute l'année, dans les forêts de terre ferme et au bord des cours d'eau, parmi la littière, du niveau de la mer jusqu'à 600 m d'altitude,.
 Voyria caerulea a été étudiée sous divers aspects :
-la morphologie de son pollen[7],[8]
-la biologie de sa reproduction[9],[10]
-sa relation parasitique/symbiotique avec ses champignons hôtes[11],[12],[13],[14],[15],[16]
-sa classification phyllogénétique[17],[18]</t>
+la morphologie de son pollen,
+la biologie de sa reproduction,
+sa relation parasitique/symbiotique avec ses champignons hôtes
+sa classification phyllogénétique,</t>
         </is>
       </c>
     </row>
@@ -617,9 +635,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet en a proposé le protologue suivant[19] : 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet en a proposé le protologue suivant : 
 « 2. Voyria (cærulea) floribus geminacis ; laciniis corollæ rotundatis. (TABULA 83. Fig. 2.) 
 Altera ſpecics, floribus violaceis, limbo quinque aut ſex-fido, lobis rotundatis.
 Repcritur in ſylvis rcmotis Guianæ, ſuprà originem amnis Galibienſis.
